--- a/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20E5A16-5589-4092-94EF-C7FB569AC7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E73637-A1A7-4BF4-B5DD-33A0930BE727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A89AD09E-23D9-43FD-AC07-122901B27C6A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF2B9262-E5BE-49C5-9D5E-D608A6C72CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>80,08%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
@@ -530,217 +530,217 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>50,87%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0508836-4359-4A3C-848C-2B0CD8BA5807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31870F8B-432C-417F-BAF7-7782D06487C2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2045AA-E8BF-4FF9-98A2-8D2A0C036D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6F0DA8-145D-489D-818E-7E11B2694426}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,7 +2567,7 @@
         <v>335</v>
       </c>
       <c r="D13" s="7">
-        <v>361835</v>
+        <v>361834</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2669,7 +2669,7 @@
         <v>1949</v>
       </c>
       <c r="D15" s="7">
-        <v>2054701</v>
+        <v>2054700</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2732,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFC75C-143D-4A89-9B5C-85E8E8FA6AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC6ED8-B901-4116-959E-ADC5EA78C8F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22765960-2165-470D-9FDF-8C318D245E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1728D2D0-8969-4554-9AE2-32FA167E012A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,7 +4150,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>240</v>
@@ -4201,7 +4201,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E73637-A1A7-4BF4-B5DD-33A0930BE727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA8949C-51C8-4586-BFBC-825BAB69DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF2B9262-E5BE-49C5-9D5E-D608A6C72CAC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B32CD76B-D75D-4B0A-8864-2C6F76D0B1C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>80,08%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,436 +311,436 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>50,87%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31870F8B-432C-417F-BAF7-7782D06487C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500C8C2B-9A10-4936-AB35-C62120736CBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6F0DA8-145D-489D-818E-7E11B2694426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A519F4-E7CC-47D1-89FB-4816923A97D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2732,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC6ED8-B901-4116-959E-ADC5EA78C8F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBB4C62-1D88-4EA8-870F-5CBAD64C564E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1728D2D0-8969-4554-9AE2-32FA167E012A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579BA74C-6B0B-4BDB-B1D4-92CE462E9A31}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA8949C-51C8-4586-BFBC-825BAB69DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F522458C-570A-4E57-A04B-D37A37400EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B32CD76B-D75D-4B0A-8864-2C6F76D0B1C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE19D1DD-D88C-4910-864C-C9A56251D93E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>80,08%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,111 +197,111 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -311,187 +311,187 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>23,99%</t>
+    <t>24,02%</t>
   </si>
   <si>
     <t>26,97%</t>
@@ -500,19 +500,19 @@
     <t>82,39%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>74,6%</t>
@@ -521,7 +521,7 @@
     <t>73,03%</t>
   </si>
   <si>
-    <t>76,01%</t>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
@@ -530,172 +530,172 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>50,87%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>23,89%</t>
@@ -704,31 +704,31 @@
     <t>21,64%</t>
   </si>
   <si>
-    <t>26,26%</t>
+    <t>26,12%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>73,74%</t>
+    <t>73,88%</t>
   </si>
   <si>
     <t>78,36%</t>
@@ -737,10 +737,10 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500C8C2B-9A10-4936-AB35-C62120736CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342CADB-3323-4AE9-AEB6-6ECB72129F25}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A519F4-E7CC-47D1-89FB-4816923A97D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDA1607-3359-432F-913D-6C7F4669E212}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,7 +2567,7 @@
         <v>335</v>
       </c>
       <c r="D13" s="7">
-        <v>361834</v>
+        <v>361835</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2669,7 +2669,7 @@
         <v>1949</v>
       </c>
       <c r="D15" s="7">
-        <v>2054700</v>
+        <v>2054701</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2732,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBB4C62-1D88-4EA8-870F-5CBAD64C564E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CFC4A-AFFC-4D16-A878-8366BB15DB6B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579BA74C-6B0B-4BDB-B1D4-92CE462E9A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BBB792-CB16-49C1-B9C7-1F790BDFB7F8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,7 +4150,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952539</v>
+        <v>2952540</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>240</v>
@@ -4201,7 +4201,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952539</v>
+        <v>2952540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F522458C-570A-4E57-A04B-D37A37400EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33442B3-7385-4C16-8D7A-B49790FB86DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE19D1DD-D88C-4910-864C-C9A56251D93E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B930E6B-A1CA-45B4-8D32-16D248CA322A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342CADB-3323-4AE9-AEB6-6ECB72129F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12F70C-CDF7-4B1E-B937-3A34FD2FF46B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDA1607-3359-432F-913D-6C7F4669E212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A9E05-C7C9-47CA-A177-A6AF9BC52C3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2732,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CFC4A-AFFC-4D16-A878-8366BB15DB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A7184-D6F5-4003-AC7B-D72CF2A03D02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BBB792-CB16-49C1-B9C7-1F790BDFB7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DA362A-C7C9-4390-9E20-A67A9D60DEF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,7 +3655,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>159697</v>
+        <v>152141</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3670,7 +3670,7 @@
         <v>216</v>
       </c>
       <c r="I5" s="7">
-        <v>142548</v>
+        <v>126770</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>240</v>
@@ -3685,7 +3685,7 @@
         <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>302245</v>
+        <v>278911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3706,7 +3706,7 @@
         <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>159697</v>
+        <v>152141</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3721,7 +3721,7 @@
         <v>216</v>
       </c>
       <c r="I6" s="7">
-        <v>142548</v>
+        <v>126770</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3736,7 @@
         <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>302245</v>
+        <v>278911</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3810,7 +3810,7 @@
         <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>1132192</v>
+        <v>1291419</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>240</v>
@@ -3825,7 +3825,7 @@
         <v>1071</v>
       </c>
       <c r="I8" s="7">
-        <v>891723</v>
+        <v>825965</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>240</v>
@@ -3840,7 +3840,7 @@
         <v>1970</v>
       </c>
       <c r="N8" s="7">
-        <v>2023915</v>
+        <v>2117385</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>240</v>
@@ -3861,7 +3861,7 @@
         <v>899</v>
       </c>
       <c r="D9" s="7">
-        <v>1132192</v>
+        <v>1291419</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3876,7 @@
         <v>1071</v>
       </c>
       <c r="I9" s="7">
-        <v>891723</v>
+        <v>825965</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3891,7 +3891,7 @@
         <v>1970</v>
       </c>
       <c r="N9" s="7">
-        <v>2023915</v>
+        <v>2117385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3965,7 +3965,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>321611</v>
+        <v>305958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>240</v>
@@ -3980,7 +3980,7 @@
         <v>402</v>
       </c>
       <c r="I11" s="7">
-        <v>304769</v>
+        <v>278893</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>240</v>
@@ -3995,7 +3995,7 @@
         <v>702</v>
       </c>
       <c r="N11" s="7">
-        <v>626380</v>
+        <v>584852</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>240</v>
@@ -4016,7 +4016,7 @@
         <v>300</v>
       </c>
       <c r="D12" s="7">
-        <v>321611</v>
+        <v>305958</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4031,7 +4031,7 @@
         <v>402</v>
       </c>
       <c r="I12" s="7">
-        <v>304769</v>
+        <v>278893</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4046,7 +4046,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>626380</v>
+        <v>584852</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4120,7 +4120,7 @@
         <v>1381</v>
       </c>
       <c r="D14" s="7">
-        <v>1613500</v>
+        <v>1749518</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>240</v>
@@ -4135,7 +4135,7 @@
         <v>1689</v>
       </c>
       <c r="I14" s="7">
-        <v>1339040</v>
+        <v>1231629</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>240</v>
@@ -4150,7 +4150,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952540</v>
+        <v>2981147</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>240</v>
@@ -4171,7 +4171,7 @@
         <v>1381</v>
       </c>
       <c r="D15" s="7">
-        <v>1613500</v>
+        <v>1749518</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4186,7 +4186,7 @@
         <v>1689</v>
       </c>
       <c r="I15" s="7">
-        <v>1339040</v>
+        <v>1231629</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4201,7 +4201,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952540</v>
+        <v>2981147</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
